--- a/RE/RE-02.부동산공시가격/Data/Config.xlsx
+++ b/RE/RE-02.부동산공시가격/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-02.부동산공시가격\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B069D586-8019-40CC-B7C0-BABA1DF776BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FBB7CA-DDC1-42ED-9FDF-E98896EB932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,6 +246,236 @@
   </si>
   <si>
     <t>MailBody_NoData</t>
+  </si>
+  <si>
+    <t>{0}=날짜
+{1}=과제명 dicConfig("과제명").ToString
+{2}=기준정보시트 &amp; 다운로드대상시트 &amp; 20.다운로드대상폴더
+{3}=기준정보시트ID &amp; 다운로드대상시트ID &amp; 20.다운로드대상폴더ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>템플릿양식명</t>
+  </si>
+  <si>
+    <t>결과양식명</t>
+  </si>
+  <si>
+    <t>GooglespreadKeywordId</t>
+  </si>
+  <si>
+    <t>GWS spreadsheet ID</t>
+  </si>
+  <si>
+    <t>SearchListSheetId</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 검색 기준정보 시트Id &amp; 시트명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchListSheetName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스탬검색기준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA결과_FormSheetId</t>
+  </si>
+  <si>
+    <t>RPA결과시트 양식 Id &amp; 시트명</t>
+  </si>
+  <si>
+    <t>RPA결과_FormSheetName</t>
+  </si>
+  <si>
+    <t>RPA처리결과</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutShort</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutMedium</t>
+  </si>
+  <si>
+    <t>Timeout medium value in milliseconds. Must be integer</t>
+  </si>
+  <si>
+    <t>TimeoutLong</t>
+  </si>
+  <si>
+    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayShort</t>
+  </si>
+  <si>
+    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayMedium</t>
+  </si>
+  <si>
+    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
+  </si>
+  <si>
+    <t>DelayLong</t>
+  </si>
+  <si>
+    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
+  </si>
+  <si>
+    <t>AccuracyLow</t>
+  </si>
+  <si>
+    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyMedium</t>
+  </si>
+  <si>
+    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
+  </si>
+  <si>
+    <t>AccuracyHigh</t>
+  </si>
+  <si>
+    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
+  </si>
+  <si>
+    <t>Processing Transaction Number :</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data</t>
+  </si>
+  <si>
+    <t>Error getting transaction data for Transaction Number:</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception</t>
+  </si>
+  <si>
+    <t>Cint(dicConfig("TimeShort"))</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailBody</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Subject</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MailTo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Result_{0}.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{0} = yyMMddhhss</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ICT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}=부서코드
+{1}=과제명 dicConfig("과제명").ToString
+{2}= 성공입니다. &amp; 실패입니다. &amp; 처리할 Data가 없습니다.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[RPA_{0}] {1} 처리 결과 : {2}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data\Input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Output</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>InputPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutputPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rpa.jian23@gmail.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rpa.soobin@gmail.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>키워드</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모니터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 세탁기, 냉장고</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>부동산공시가격_추가데이터.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RE-Framework 부동산 공시가격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -338,401 +568,19 @@
       </rPr>
       <t>&lt;/span&gt;&lt;/p&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>{0}=날짜
-{1}=과제명 dicConfig("과제명").ToString
-{2}=기준정보시트 &amp; 다운로드대상시트 &amp; 20.다운로드대상폴더
-{3}=기준정보시트ID &amp; 다운로드대상시트ID &amp; 20.다운로드대상폴더ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;결과 데이터를 확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>템플릿양식명</t>
-  </si>
-  <si>
-    <t>결과양식명</t>
-  </si>
-  <si>
-    <t>GooglespreadKeywordId</t>
-  </si>
-  <si>
-    <t>GWS spreadsheet ID</t>
-  </si>
-  <si>
-    <t>SearchListSheetId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 검색 기준정보 시트Id &amp; 시트명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SearchListSheetName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스탬검색기준</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA결과_FormSheetId</t>
-  </si>
-  <si>
-    <t>RPA결과시트 양식 Id &amp; 시트명</t>
-  </si>
-  <si>
-    <t>RPA결과_FormSheetName</t>
-  </si>
-  <si>
-    <t>RPA처리결과</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutShort</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for activities which are likely to fail. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutMedium</t>
-  </si>
-  <si>
-    <t>Timeout medium value in milliseconds. Must be integer</t>
-  </si>
-  <si>
-    <t>TimeoutLong</t>
-  </si>
-  <si>
-    <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayShort</t>
-  </si>
-  <si>
-    <t>Delay short value in milliseconds, for activities where it is necessary to wait a little. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayMedium</t>
-  </si>
-  <si>
-    <t>Delay medium value in milliseconds, for activities where it is necessary to wait a moderate amount of time. Must be integer</t>
-  </si>
-  <si>
-    <t>DelayLong</t>
-  </si>
-  <si>
-    <t>Delay long value in milliseconds, for activities where it is necessary to wait a long time. Must be integer</t>
-  </si>
-  <si>
-    <t>AccuracyLow</t>
-  </si>
-  <si>
-    <t>Image accuracy low value, for images that have high contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyMedium</t>
-  </si>
-  <si>
-    <t>Image accuracy medium value, for images that have normal contrast. Must be double</t>
-  </si>
-  <si>
-    <t>AccuracyHigh</t>
-  </si>
-  <si>
-    <t>Image accuracy high value, for images that have low contrast. Must be double</t>
-  </si>
-  <si>
-    <t>Processing Transaction Number :</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data</t>
-  </si>
-  <si>
-    <t>Error getting transaction data for Transaction Number:</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception</t>
-  </si>
-  <si>
-    <t>Cint(dicConfig("TimeShort"))</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailBody</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Subject</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MailTo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Result_{0}.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{0} = yyMMddhhss</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RE-Framework 네이버 쇼핑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}=부서코드
-{1}=과제명 dicConfig("과제명").ToString
-{2}= 성공입니다. &amp; 실패입니다. &amp; 처리할 Data가 없습니다.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[RPA_{0}] {1} 처리 결과 : {2}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data\Input</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Data\Output</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>InputPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OutputPath</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>{0}=날짜
 {1}=과제명 Config("과제명").ToString
-{2}=intTotalCnt
-{3}=intSuccessCnt
-{4}=intFailCnt
-{5}=strMemo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rpa.jian23@gmail.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;RPA_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;결과 데이터를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt; &lt;/span&gt;&lt;/p&gt;
-&lt;table cellspacing="0" cellpadding="0" border="1" style="width: 776px; height: 60px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;총건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;미처리건수&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;th style="width: 154px; height: 29px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid; background-color: rgb(255, 250, 205);" colspan="1" scope="col"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;비&amp;nbsp; &amp;nbsp;고&lt;/span&gt;&lt;/p&gt;&lt;/th&gt;
-&lt;/tr&gt;
-&lt;tr&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt; color: rgb(0, 0, 255); font-weight: bold;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="color: rgb(255, 0, 0); font-weight: bold; font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{4}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;td style="width: 154px; height: 30px; border-width: 1px; border-color: rgb(0, 0, 0); border-style: solid;" colspan="1"&gt;
-&lt;p style="text-align: center;"&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;&amp;nbsp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{5}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
-&lt;/tr&gt;</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpa.soobin@gmail.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>키워드</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모니터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 세탁기, 냉장고</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>부동산공시가격_추가데이터.xlsx</t>
+{2}=strHTML</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1416,14 +1264,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="117.109375" customWidth="1"/>
+    <col min="2" max="2" width="133.21875" customWidth="1"/>
     <col min="3" max="3" width="116" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1466,7 +1314,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -1475,7 +1323,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1484,7 +1332,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
@@ -1660,13 +1508,13 @@
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999">
       <c r="A25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999">
@@ -1678,124 +1526,124 @@
     </row>
     <row r="27" spans="1:3" ht="46.8">
       <c r="A27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="409.6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="62.4">
       <c r="A28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="78">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="62.4">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6">
       <c r="A30" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" ht="15.6">
       <c r="A31" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="15.6">
       <c r="A32" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="15.6">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="15.6">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6">
       <c r="A36" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6">
       <c r="A37" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="15.6">
       <c r="A38" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6">
       <c r="A39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="C39" s="38"/>
     </row>
@@ -1822,19 +1670,19 @@
     </row>
     <row r="43" spans="1:3" ht="31.2">
       <c r="A43" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999">
       <c r="A45" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.4">
@@ -1916,35 +1764,35 @@
     </row>
     <row r="5" spans="1:3" ht="14.4">
       <c r="A5" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="26">
         <v>5000</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4">
       <c r="A6" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="26">
         <v>30000</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4">
       <c r="A7" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="26">
         <v>120000</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4">
@@ -1970,35 +1818,35 @@
     </row>
     <row r="11" spans="1:3" ht="14.4">
       <c r="A11" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="26">
         <v>1000</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4">
       <c r="A12" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="26">
         <v>15000</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4">
       <c r="A13" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="26">
         <v>60000</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.4">
@@ -2008,35 +1856,35 @@
     </row>
     <row r="15" spans="1:3" ht="14.4">
       <c r="A15" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="26">
         <v>0.6</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4">
       <c r="A16" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="26">
         <v>0.8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4">
       <c r="A17" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="26">
         <v>0.9</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4">
@@ -2049,10 +1897,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4">
@@ -2060,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>10</v>
@@ -2074,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.4">
@@ -2085,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.4">
@@ -2096,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.4">
@@ -2186,7 +2034,7 @@
     <row r="36" spans="1:3" ht="14.4">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36"/>
     </row>

--- a/RE/RE-02.부동산공시가격/Data/Config.xlsx
+++ b/RE/RE-02.부동산공시가격/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-02.부동산공시가격\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FBB7CA-DDC1-42ED-9FDF-E98896EB932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D41A72-BA9E-4948-8BEB-CEAD26A39F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,17 +571,17 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;결과 데이터를 확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>{0}=날짜
 {1}=과제명 Config("과제명").ToString
 {2}=strHTML</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;{0} RPA_{1} 결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;결과 데이터를 확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: 'Malgun Gothic'; font-size: 12pt;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;{2}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1540,10 +1540,10 @@
         <v>113</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="62.4">
